--- a/Hackathon/Excel/Book2.xlsx
+++ b/Hackathon/Excel/Book2.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="71">
   <si>
     <t>Language Learning</t>
   </si>

--- a/Hackathon/Excel/Book2.xlsx
+++ b/Hackathon/Excel/Book2.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="113">
   <si>
     <t>Language Learning</t>
   </si>
@@ -251,6 +251,132 @@
   </si>
   <si>
     <t>example@yourdomain.com</t>
+  </si>
+  <si>
+    <t>English (1,651)</t>
+  </si>
+  <si>
+    <t>Beginner (888)</t>
+  </si>
+  <si>
+    <t>Intermediate (782)</t>
+  </si>
+  <si>
+    <t>HTML, CSS, and Javascript for Web Developers</t>
+  </si>
+  <si>
+    <t>English (929)</t>
+  </si>
+  <si>
+    <t>Arabic (492)</t>
+  </si>
+  <si>
+    <t>Spanish (491)</t>
+  </si>
+  <si>
+    <t>French (472)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (454)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (449)</t>
+  </si>
+  <si>
+    <t>Dutch (448)</t>
+  </si>
+  <si>
+    <t>German (448)</t>
+  </si>
+  <si>
+    <t>Greek (448)</t>
+  </si>
+  <si>
+    <t>Hindi (448)</t>
+  </si>
+  <si>
+    <t>Indonesian (448)</t>
+  </si>
+  <si>
+    <t>Italian (448)</t>
+  </si>
+  <si>
+    <t>Polish (448)</t>
+  </si>
+  <si>
+    <t>Swedish (448)</t>
+  </si>
+  <si>
+    <t>Thai (448)</t>
+  </si>
+  <si>
+    <t>Turkish (448)</t>
+  </si>
+  <si>
+    <t>Ukrainian (448)</t>
+  </si>
+  <si>
+    <t>Russian (399)</t>
+  </si>
+  <si>
+    <t>Kazakh (384)</t>
+  </si>
+  <si>
+    <t>Hungarian (321)</t>
+  </si>
+  <si>
+    <t>Japanese (65)</t>
+  </si>
+  <si>
+    <t>Korean (65)</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional) (1)</t>
+  </si>
+  <si>
+    <t>Beginner (472)</t>
+  </si>
+  <si>
+    <t>Intermediate (463)</t>
+  </si>
+  <si>
+    <t>Advanced (32)</t>
+  </si>
+  <si>
+    <t>Mixed (72)</t>
+  </si>
+  <si>
+    <t>3 weeks at 3 hours a week</t>
+  </si>
+  <si>
+    <t>Python for Data Science, AI &amp; Development</t>
+  </si>
+  <si>
+    <t>26 hours (approximately)</t>
+  </si>
+  <si>
+    <t>Japanese (979)</t>
+  </si>
+  <si>
+    <t>Korean (977)</t>
+  </si>
+  <si>
+    <t>Beginner (887)</t>
+  </si>
+  <si>
+    <t>Intermediate (784)</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>English (1,661)</t>
+  </si>
+  <si>
+    <t>Beginner (895)</t>
+  </si>
+  <si>
+    <t>Intermediate (786)</t>
   </si>
 </sst>
 </file>
@@ -678,13 +804,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>70</v>
@@ -692,21 +818,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
@@ -714,7 +840,7 @@
         <v>51</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>40</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
@@ -745,82 +871,82 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>57</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
